--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1239</v>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>41001</v>
+        <v>41000</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>41005</v>
+        <v>41007</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>41012</v>
+        <v>41014</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>41019</v>
+        <v>41021</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -456,15 +456,15 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>41026</v>
+        <v>41028</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>41029</v>
+        <v>41035</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>41033</v>
+        <v>41042</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -480,15 +480,15 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>41036</v>
+        <v>41049</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>41040</v>
+        <v>41056</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>41047</v>
+        <v>41063</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>41054</v>
+        <v>41070</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>41061</v>
+        <v>41077</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>41068</v>
+        <v>41084</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>41075</v>
+        <v>41091</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>41082</v>
+        <v>41098</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>41089</v>
+        <v>41105</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>41096</v>
+        <v>41112</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>41103</v>
+        <v>41119</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>41110</v>
+        <v>41126</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>41117</v>
+        <v>41133</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>41124</v>
+        <v>41140</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41131</v>
+        <v>41147</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41138</v>
+        <v>41154</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41145</v>
+        <v>41161</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -616,15 +616,15 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41152</v>
+        <v>41168</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41159</v>
+        <v>41175</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -632,15 +632,15 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41162</v>
+        <v>41182</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41166</v>
+        <v>41189</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41173</v>
+        <v>41196</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41180</v>
+        <v>41203</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41187</v>
+        <v>41210</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -672,15 +672,15 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41194</v>
+        <v>41217</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41201</v>
+        <v>41224</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41208</v>
+        <v>41231</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -696,23 +696,23 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41215</v>
+        <v>41238</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41218</v>
+        <v>41245</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41222</v>
+        <v>41252</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41229</v>
+        <v>41259</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41236</v>
+        <v>41266</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -736,15 +736,15 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41239</v>
+        <v>41273</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41243</v>
+        <v>41280</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41250</v>
+        <v>41287</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41257</v>
+        <v>41294</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41264</v>
+        <v>41301</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41271</v>
+        <v>41308</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41278</v>
+        <v>41315</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41285</v>
+        <v>41322</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41292</v>
+        <v>41329</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41299</v>
+        <v>41336</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41306</v>
+        <v>41343</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41313</v>
+        <v>41350</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41320</v>
+        <v>41357</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41327</v>
+        <v>41364</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41334</v>
+        <v>41371</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41341</v>
+        <v>41378</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41348</v>
+        <v>41385</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41355</v>
+        <v>41392</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41362</v>
+        <v>41399</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41369</v>
+        <v>41406</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41376</v>
+        <v>41413</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41383</v>
+        <v>41420</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>41390</v>
+        <v>41427</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>41397</v>
+        <v>41434</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>41404</v>
+        <v>41441</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>41411</v>
+        <v>41448</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>41418</v>
+        <v>41455</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>41425</v>
+        <v>41462</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -960,15 +960,15 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>41432</v>
+        <v>41469</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>41439</v>
+        <v>41476</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>41446</v>
+        <v>41483</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>41453</v>
+        <v>41490</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>41460</v>
+        <v>41497</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>41467</v>
+        <v>41504</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>41470</v>
+        <v>41511</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>41474</v>
+        <v>41518</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>41481</v>
+        <v>41525</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1032,15 +1032,15 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>41488</v>
+        <v>41532</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>41495</v>
+        <v>41539</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1048,71 +1048,71 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>41502</v>
+        <v>41546</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>41509</v>
+        <v>41553</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>41512</v>
+        <v>41560</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>41516</v>
+        <v>41567</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>41523</v>
+        <v>41574</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>41530</v>
+        <v>41581</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>41533</v>
+        <v>41588</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>41537</v>
+        <v>41595</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>41544</v>
+        <v>41602</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1120,15 +1120,15 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>41547</v>
+        <v>41609</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>41551</v>
+        <v>41616</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1136,15 +1136,15 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>41554</v>
+        <v>41623</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>41558</v>
+        <v>41630</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>41565</v>
+        <v>41637</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1160,31 +1160,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>41568</v>
+        <v>41644</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>41572</v>
+        <v>41651</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>41575</v>
+        <v>41658</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>41579</v>
+        <v>41665</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1192,23 +1192,23 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>41582</v>
+        <v>41672</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>41586</v>
+        <v>41679</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>41589</v>
+        <v>41686</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1216,15 +1216,15 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>41593</v>
+        <v>41693</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>41596</v>
+        <v>41700</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1232,87 +1232,87 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>41600</v>
+        <v>41707</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>41607</v>
+        <v>41714</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>41610</v>
+        <v>41721</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>41614</v>
+        <v>41728</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>41621</v>
+        <v>41735</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>41628</v>
+        <v>41742</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>41635</v>
+        <v>41749</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>41642</v>
+        <v>41756</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>41649</v>
+        <v>41763</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>41652</v>
+        <v>41770</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>41656</v>
+        <v>41777</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1320,15 +1320,15 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>41659</v>
+        <v>41784</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>41663</v>
+        <v>41791</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>41670</v>
+        <v>41798</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>41677</v>
+        <v>41805</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1352,15 +1352,15 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>41680</v>
+        <v>41812</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>41684</v>
+        <v>41819</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -1368,31 +1368,31 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>41687</v>
+        <v>41826</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>41691</v>
+        <v>41833</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>41694</v>
+        <v>41840</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>41698</v>
+        <v>41847</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1400,15 +1400,15 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>41701</v>
+        <v>41854</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>41705</v>
+        <v>41861</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1416,39 +1416,39 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>41708</v>
+        <v>41868</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>41712</v>
+        <v>41875</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>41715</v>
+        <v>41882</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>41719</v>
+        <v>41889</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>41726</v>
+        <v>41896</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1456,15 +1456,15 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>41729</v>
+        <v>41903</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>41733</v>
+        <v>41910</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1472,31 +1472,31 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>41736</v>
+        <v>41917</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>41740</v>
+        <v>41924</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>41743</v>
+        <v>41931</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>41747</v>
+        <v>41938</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1504,15 +1504,15 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>41750</v>
+        <v>41945</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>41754</v>
+        <v>41952</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1520,47 +1520,47 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>41757</v>
+        <v>41959</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>41761</v>
+        <v>41966</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>41764</v>
+        <v>41973</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>41768</v>
+        <v>41980</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>41775</v>
+        <v>41987</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>41782</v>
+        <v>41994</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1568,15 +1568,15 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>41789</v>
+        <v>42001</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>41796</v>
+        <v>42008</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1584,23 +1584,23 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>41803</v>
+        <v>42015</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>41810</v>
+        <v>42022</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>41817</v>
+        <v>42029</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1608,23 +1608,23 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>41824</v>
+        <v>42036</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>41827</v>
+        <v>42043</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>41831</v>
+        <v>42050</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1632,39 +1632,39 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>41838</v>
+        <v>42057</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>41845</v>
+        <v>42064</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>41852</v>
+        <v>42071</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>41859</v>
+        <v>42078</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>41866</v>
+        <v>42085</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1672,79 +1672,79 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>41873</v>
+        <v>42092</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>41876</v>
+        <v>42099</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>41880</v>
+        <v>42106</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>41887</v>
+        <v>42113</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>41890</v>
+        <v>42120</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>41894</v>
+        <v>42127</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>41901</v>
+        <v>42134</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>41904</v>
+        <v>42141</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>41908</v>
+        <v>42148</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>41915</v>
+        <v>42155</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1752,15 +1752,15 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>41918</v>
+        <v>42162</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>41922</v>
+        <v>42169</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -1768,15 +1768,15 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>41925</v>
+        <v>42176</v>
       </c>
       <c r="B170">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>41929</v>
+        <v>42183</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -1784,31 +1784,31 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>41932</v>
+        <v>42190</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>41936</v>
+        <v>42197</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>41939</v>
+        <v>42204</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>41943</v>
+        <v>42211</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>41950</v>
+        <v>42218</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>41957</v>
+        <v>42225</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -1832,159 +1832,159 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>41964</v>
+        <v>42232</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>41967</v>
+        <v>42239</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>41971</v>
+        <v>42246</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>41974</v>
+        <v>42253</v>
       </c>
       <c r="B181">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>41978</v>
+        <v>42260</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>41981</v>
+        <v>42267</v>
       </c>
       <c r="B183">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>41985</v>
+        <v>42274</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>41988</v>
+        <v>42281</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>41992</v>
+        <v>42288</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>41999</v>
+        <v>42295</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>42002</v>
+        <v>42302</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>42006</v>
+        <v>42309</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>42013</v>
+        <v>42316</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>42016</v>
+        <v>42323</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>42020</v>
+        <v>42330</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>42023</v>
+        <v>42337</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>42027</v>
+        <v>42344</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>42034</v>
+        <v>42351</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>42037</v>
+        <v>42358</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>42041</v>
+        <v>42365</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -1992,15 +1992,15 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>42044</v>
+        <v>42372</v>
       </c>
       <c r="B198">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>42048</v>
+        <v>42379</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>42051</v>
+        <v>42386</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -2016,159 +2016,159 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>42055</v>
+        <v>42393</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>42058</v>
+        <v>42400</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>42062</v>
+        <v>42407</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>42065</v>
+        <v>42414</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>42069</v>
+        <v>42421</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>42072</v>
+        <v>42428</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>42076</v>
+        <v>42435</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>42079</v>
+        <v>42442</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>42083</v>
+        <v>42449</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>42090</v>
+        <v>42456</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>42093</v>
+        <v>42463</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>42097</v>
+        <v>42470</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>42100</v>
+        <v>42477</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>42104</v>
+        <v>42484</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>42107</v>
+        <v>42491</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>42111</v>
+        <v>42498</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>42114</v>
+        <v>42505</v>
       </c>
       <c r="B217">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>42118</v>
+        <v>42512</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>42121</v>
+        <v>42519</v>
       </c>
       <c r="B219">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>42125</v>
+        <v>42526</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -2176,15 +2176,15 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>42128</v>
+        <v>42533</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>42132</v>
+        <v>42540</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -2192,15 +2192,15 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>42135</v>
+        <v>42547</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>42139</v>
+        <v>42554</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>42146</v>
+        <v>42561</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -2216,23 +2216,23 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>42149</v>
+        <v>42568</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>42153</v>
+        <v>42575</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>42160</v>
+        <v>42582</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>42167</v>
+        <v>42589</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -2248,15 +2248,15 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>42174</v>
+        <v>42596</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>42181</v>
+        <v>42603</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -2264,103 +2264,103 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>42188</v>
+        <v>42610</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>42191</v>
+        <v>42617</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>42195</v>
+        <v>42624</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>42198</v>
+        <v>42631</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>42202</v>
+        <v>42638</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>42209</v>
+        <v>42645</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>42216</v>
+        <v>42652</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>42223</v>
+        <v>42659</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>42230</v>
+        <v>42666</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>42233</v>
+        <v>42673</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>42237</v>
+        <v>42680</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>42244</v>
+        <v>42687</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>42247</v>
+        <v>42694</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -2368,31 +2368,31 @@
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>42251</v>
+        <v>42701</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>42258</v>
+        <v>42708</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>42261</v>
+        <v>42715</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>42265</v>
+        <v>42722</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -2400,95 +2400,95 @@
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>42268</v>
+        <v>42729</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>42272</v>
+        <v>42736</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>42275</v>
+        <v>42743</v>
       </c>
       <c r="B251">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>42279</v>
+        <v>42750</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>42282</v>
+        <v>42757</v>
       </c>
       <c r="B253">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>42286</v>
+        <v>42764</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>42289</v>
+        <v>42771</v>
       </c>
       <c r="B255">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>42293</v>
+        <v>42778</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>42296</v>
+        <v>42785</v>
       </c>
       <c r="B257">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>42300</v>
+        <v>42792</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>42303</v>
+        <v>42799</v>
       </c>
       <c r="B259">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>42307</v>
+        <v>42806</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -2496,63 +2496,63 @@
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>42310</v>
+        <v>42813</v>
       </c>
       <c r="B261">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>42314</v>
+        <v>42820</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>42317</v>
+        <v>42827</v>
       </c>
       <c r="B263">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>42321</v>
+        <v>42834</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>42324</v>
+        <v>42841</v>
       </c>
       <c r="B265">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>42328</v>
+        <v>42848</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>42331</v>
+        <v>42855</v>
       </c>
       <c r="B267">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>42335</v>
+        <v>42862</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -2560,31 +2560,31 @@
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>42338</v>
+        <v>42869</v>
       </c>
       <c r="B269">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>42342</v>
+        <v>42876</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>42345</v>
+        <v>42883</v>
       </c>
       <c r="B271">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>42349</v>
+        <v>42890</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -2592,15 +2592,15 @@
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>42352</v>
+        <v>42897</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>42356</v>
+        <v>42904</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>42363</v>
+        <v>42911</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>42370</v>
+        <v>42918</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>42377</v>
+        <v>42925</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>42384</v>
+        <v>42932</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -2640,23 +2640,23 @@
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>42387</v>
+        <v>42939</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>42391</v>
+        <v>42946</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>42394</v>
+        <v>42953</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -2664,47 +2664,47 @@
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>42398</v>
+        <v>42960</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>42401</v>
+        <v>42967</v>
       </c>
       <c r="B283">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>42405</v>
+        <v>42974</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>42408</v>
+        <v>42981</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>42412</v>
+        <v>42988</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>42415</v>
+        <v>42995</v>
       </c>
       <c r="B287">
         <v>11</v>
@@ -2712,63 +2712,63 @@
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>42419</v>
+        <v>43002</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>42422</v>
+        <v>43009</v>
       </c>
       <c r="B289">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>42426</v>
+        <v>43016</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>42429</v>
+        <v>43023</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>42433</v>
+        <v>43030</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>42436</v>
+        <v>43037</v>
       </c>
       <c r="B293">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>42440</v>
+        <v>43044</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <v>42443</v>
+        <v>43051</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -2776,39 +2776,39 @@
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <v>42447</v>
+        <v>43058</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <v>42450</v>
+        <v>43065</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <v>42454</v>
+        <v>43072</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
-        <v>42457</v>
+        <v>43079</v>
       </c>
       <c r="B299">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2">
-        <v>42461</v>
+        <v>43086</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -2816,15 +2816,15 @@
     </row>
     <row r="301">
       <c r="A301" s="2">
-        <v>42464</v>
+        <v>43093</v>
       </c>
       <c r="B301">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2">
-        <v>42468</v>
+        <v>43100</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -2832,31 +2832,31 @@
     </row>
     <row r="303">
       <c r="A303" s="2">
-        <v>42471</v>
+        <v>43107</v>
       </c>
       <c r="B303">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2">
-        <v>42475</v>
+        <v>43114</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2">
-        <v>42478</v>
+        <v>43121</v>
       </c>
       <c r="B305">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2">
-        <v>42482</v>
+        <v>43128</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -2864,47 +2864,47 @@
     </row>
     <row r="307">
       <c r="A307" s="2">
-        <v>42485</v>
+        <v>43135</v>
       </c>
       <c r="B307">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2">
-        <v>42489</v>
+        <v>43142</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2">
-        <v>42492</v>
+        <v>43149</v>
       </c>
       <c r="B309">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2">
-        <v>42496</v>
+        <v>43156</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2">
-        <v>42499</v>
+        <v>43163</v>
       </c>
       <c r="B311">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2">
-        <v>42503</v>
+        <v>43170</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -2912,1426 +2912,74 @@
     </row>
     <row r="313">
       <c r="A313" s="2">
-        <v>42510</v>
+        <v>43177</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2">
-        <v>42513</v>
+        <v>43184</v>
       </c>
       <c r="B314">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2">
-        <v>42517</v>
+        <v>43191</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2">
-        <v>42520</v>
+        <v>43198</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <v>42524</v>
+        <v>43205</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2">
-        <v>42531</v>
+        <v>43212</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2">
-        <v>42538</v>
+        <v>43219</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2">
-        <v>42545</v>
+        <v>43226</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2">
-        <v>42552</v>
+        <v>43233</v>
       </c>
       <c r="B321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="2">
-        <v>42559</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="2">
-        <v>42566</v>
-      </c>
-      <c r="B323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="2">
-        <v>42573</v>
-      </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2">
-        <v>42576</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2">
-        <v>42580</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2">
-        <v>42587</v>
-      </c>
-      <c r="B327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2">
-        <v>42594</v>
-      </c>
-      <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="2">
-        <v>42597</v>
-      </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="2">
-        <v>42601</v>
-      </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="2">
-        <v>42608</v>
-      </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="2">
-        <v>42611</v>
-      </c>
-      <c r="B332">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="2">
-        <v>42615</v>
-      </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="2">
-        <v>42618</v>
-      </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="2">
-        <v>42622</v>
-      </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="2">
-        <v>42625</v>
-      </c>
-      <c r="B336">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="2">
-        <v>42629</v>
-      </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="2">
-        <v>42632</v>
-      </c>
-      <c r="B338">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="2">
-        <v>42636</v>
-      </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="2">
-        <v>42639</v>
-      </c>
-      <c r="B340">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="2">
-        <v>42643</v>
-      </c>
-      <c r="B341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2">
-        <v>42646</v>
-      </c>
-      <c r="B342">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="2">
-        <v>42650</v>
-      </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="2">
-        <v>42653</v>
-      </c>
-      <c r="B344">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="2">
-        <v>42657</v>
-      </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="2">
-        <v>42660</v>
-      </c>
-      <c r="B346">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="2">
-        <v>42664</v>
-      </c>
-      <c r="B347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2">
-        <v>42667</v>
-      </c>
-      <c r="B348">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2">
-        <v>42671</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="2">
-        <v>42674</v>
-      </c>
-      <c r="B350">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="2">
-        <v>42678</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="2">
-        <v>42681</v>
-      </c>
-      <c r="B352">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="2">
-        <v>42685</v>
-      </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="2">
-        <v>42688</v>
-      </c>
-      <c r="B354">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="2">
-        <v>42692</v>
-      </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="2">
-        <v>42695</v>
-      </c>
-      <c r="B356">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="2">
-        <v>42699</v>
-      </c>
-      <c r="B357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="2">
-        <v>42702</v>
-      </c>
-      <c r="B358">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="2">
-        <v>42706</v>
-      </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="2">
-        <v>42709</v>
-      </c>
-      <c r="B360">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="2">
-        <v>42713</v>
-      </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="2">
-        <v>42716</v>
-      </c>
-      <c r="B362">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="2">
-        <v>42720</v>
-      </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="2">
-        <v>42727</v>
-      </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="2">
-        <v>42730</v>
-      </c>
-      <c r="B365">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="2">
-        <v>42734</v>
-      </c>
-      <c r="B366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="2">
-        <v>42741</v>
-      </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="2">
-        <v>42744</v>
-      </c>
-      <c r="B368">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="2">
-        <v>42748</v>
-      </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="2">
-        <v>42751</v>
-      </c>
-      <c r="B370">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="2">
-        <v>42755</v>
-      </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="2">
-        <v>42758</v>
-      </c>
-      <c r="B372">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="2">
-        <v>42762</v>
-      </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="2">
-        <v>42765</v>
-      </c>
-      <c r="B374">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="2">
-        <v>42769</v>
-      </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="2">
-        <v>42772</v>
-      </c>
-      <c r="B376">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="2">
-        <v>42776</v>
-      </c>
-      <c r="B377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="2">
-        <v>42779</v>
-      </c>
-      <c r="B378">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="2">
-        <v>42783</v>
-      </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="2">
-        <v>42786</v>
-      </c>
-      <c r="B380">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="2">
-        <v>42790</v>
-      </c>
-      <c r="B381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="2">
-        <v>42793</v>
-      </c>
-      <c r="B382">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="2">
-        <v>42797</v>
-      </c>
-      <c r="B383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="2">
-        <v>42800</v>
-      </c>
-      <c r="B384">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="2">
-        <v>42804</v>
-      </c>
-      <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="2">
-        <v>42811</v>
-      </c>
-      <c r="B386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="2">
-        <v>42814</v>
-      </c>
-      <c r="B387">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="2">
-        <v>42818</v>
-      </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="2">
-        <v>42821</v>
-      </c>
-      <c r="B389">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="2">
-        <v>42825</v>
-      </c>
-      <c r="B390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="2">
-        <v>42828</v>
-      </c>
-      <c r="B391">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="2">
-        <v>42832</v>
-      </c>
-      <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="2">
-        <v>42835</v>
-      </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="2">
-        <v>42839</v>
-      </c>
-      <c r="B394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="2">
-        <v>42842</v>
-      </c>
-      <c r="B395">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="2">
-        <v>42846</v>
-      </c>
-      <c r="B396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="2">
-        <v>42849</v>
-      </c>
-      <c r="B397">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="2">
-        <v>42853</v>
-      </c>
-      <c r="B398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="2">
-        <v>42856</v>
-      </c>
-      <c r="B399">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="2">
-        <v>42860</v>
-      </c>
-      <c r="B400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="2">
-        <v>42867</v>
-      </c>
-      <c r="B401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="2">
-        <v>42874</v>
-      </c>
-      <c r="B402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="2">
-        <v>42877</v>
-      </c>
-      <c r="B403">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="2">
-        <v>42881</v>
-      </c>
-      <c r="B404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="2">
-        <v>42888</v>
-      </c>
-      <c r="B405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="2">
-        <v>42895</v>
-      </c>
-      <c r="B406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="2">
-        <v>42902</v>
-      </c>
-      <c r="B407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2">
-        <v>42909</v>
-      </c>
-      <c r="B408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="2">
-        <v>42916</v>
-      </c>
-      <c r="B409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="2">
-        <v>42923</v>
-      </c>
-      <c r="B410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="2">
-        <v>42930</v>
-      </c>
-      <c r="B411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="2">
-        <v>42937</v>
-      </c>
-      <c r="B412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="2">
-        <v>42944</v>
-      </c>
-      <c r="B413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="2">
-        <v>42947</v>
-      </c>
-      <c r="B414">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="2">
-        <v>42951</v>
-      </c>
-      <c r="B415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="2">
-        <v>42954</v>
-      </c>
-      <c r="B416">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="2">
-        <v>42958</v>
-      </c>
-      <c r="B417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="2">
-        <v>42961</v>
-      </c>
-      <c r="B418">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="2">
-        <v>42965</v>
-      </c>
-      <c r="B419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="2">
-        <v>42968</v>
-      </c>
-      <c r="B420">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="2">
-        <v>42972</v>
-      </c>
-      <c r="B421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="2">
-        <v>42975</v>
-      </c>
-      <c r="B422">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="2">
-        <v>42979</v>
-      </c>
-      <c r="B423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="2">
-        <v>42982</v>
-      </c>
-      <c r="B424">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="2">
-        <v>42986</v>
-      </c>
-      <c r="B425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="2">
-        <v>42989</v>
-      </c>
-      <c r="B426">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="2">
-        <v>42993</v>
-      </c>
-      <c r="B427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="2">
-        <v>42996</v>
-      </c>
-      <c r="B428">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="2">
-        <v>43000</v>
-      </c>
-      <c r="B429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="2">
-        <v>43003</v>
-      </c>
-      <c r="B430">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="2">
-        <v>43007</v>
-      </c>
-      <c r="B431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="2">
-        <v>43010</v>
-      </c>
-      <c r="B432">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="2">
-        <v>43014</v>
-      </c>
-      <c r="B433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="2">
-        <v>43017</v>
-      </c>
-      <c r="B434">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2">
-        <v>43021</v>
-      </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="2">
-        <v>43024</v>
-      </c>
-      <c r="B436">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="2">
-        <v>43028</v>
-      </c>
-      <c r="B437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="2">
-        <v>43031</v>
-      </c>
-      <c r="B438">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="2">
-        <v>43035</v>
-      </c>
-      <c r="B439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="2">
-        <v>43038</v>
-      </c>
-      <c r="B440">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="2">
-        <v>43042</v>
-      </c>
-      <c r="B441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="2">
-        <v>43045</v>
-      </c>
-      <c r="B442">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="2">
-        <v>43049</v>
-      </c>
-      <c r="B443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="2">
-        <v>43052</v>
-      </c>
-      <c r="B444">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="2">
-        <v>43056</v>
-      </c>
-      <c r="B445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="2">
-        <v>43059</v>
-      </c>
-      <c r="B446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="2">
-        <v>43063</v>
-      </c>
-      <c r="B447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="2">
-        <v>43066</v>
-      </c>
-      <c r="B448">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="2">
-        <v>43070</v>
-      </c>
-      <c r="B449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="2">
-        <v>43073</v>
-      </c>
-      <c r="B450">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="2">
-        <v>43077</v>
-      </c>
-      <c r="B451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="2">
-        <v>43084</v>
-      </c>
-      <c r="B452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="2">
-        <v>43091</v>
-      </c>
-      <c r="B453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="2">
-        <v>43098</v>
-      </c>
-      <c r="B454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="2">
-        <v>43105</v>
-      </c>
-      <c r="B455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="2">
-        <v>43108</v>
-      </c>
-      <c r="B456">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="2">
-        <v>43112</v>
-      </c>
-      <c r="B457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="2">
-        <v>43115</v>
-      </c>
-      <c r="B458">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="2">
-        <v>43119</v>
-      </c>
-      <c r="B459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="2">
-        <v>43126</v>
-      </c>
-      <c r="B460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="2">
-        <v>43129</v>
-      </c>
-      <c r="B461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="2">
-        <v>43133</v>
-      </c>
-      <c r="B462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2">
-        <v>43136</v>
-      </c>
-      <c r="B463">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="2">
-        <v>43143</v>
-      </c>
-      <c r="B465">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="2">
-        <v>43147</v>
-      </c>
-      <c r="B466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="2">
-        <v>43150</v>
-      </c>
-      <c r="B467">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="2">
-        <v>43154</v>
-      </c>
-      <c r="B468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="2">
-        <v>43157</v>
-      </c>
-      <c r="B469">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="2">
-        <v>43161</v>
-      </c>
-      <c r="B470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="2">
-        <v>43164</v>
-      </c>
-      <c r="B471">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="2">
-        <v>43168</v>
-      </c>
-      <c r="B472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="2">
-        <v>43175</v>
-      </c>
-      <c r="B473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2">
-        <v>43178</v>
-      </c>
-      <c r="B474">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="2">
-        <v>43182</v>
-      </c>
-      <c r="B475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="2">
-        <v>43185</v>
-      </c>
-      <c r="B476">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="2">
-        <v>43189</v>
-      </c>
-      <c r="B477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="2">
-        <v>43192</v>
-      </c>
-      <c r="B478">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="2">
-        <v>43196</v>
-      </c>
-      <c r="B479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="2">
-        <v>43199</v>
-      </c>
-      <c r="B480">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="2">
-        <v>43203</v>
-      </c>
-      <c r="B481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="2">
-        <v>43206</v>
-      </c>
-      <c r="B482">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="2">
-        <v>43210</v>
-      </c>
-      <c r="B483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="2">
-        <v>43213</v>
-      </c>
-      <c r="B484">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="2">
-        <v>43217</v>
-      </c>
-      <c r="B485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="2">
-        <v>43224</v>
-      </c>
-      <c r="B486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="2">
-        <v>43227</v>
-      </c>
-      <c r="B487">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="2">
-        <v>43231</v>
-      </c>
-      <c r="B488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="2">
-        <v>43234</v>
-      </c>
-      <c r="B489">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="2">
-        <v>43238</v>
-      </c>
-      <c r="B490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1222</v>
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1123,7 @@
         <v>41609</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -1939,7 +1939,7 @@
         <v>42323</v>
       </c>
       <c r="B191">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192">
@@ -2051,7 +2051,7 @@
         <v>42421</v>
       </c>
       <c r="B205">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206">
@@ -2091,7 +2091,7 @@
         <v>42456</v>
       </c>
       <c r="B210">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211">
@@ -2123,7 +2123,7 @@
         <v>42484</v>
       </c>
       <c r="B214">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
@@ -2275,7 +2275,7 @@
         <v>42617</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>42638</v>
       </c>
       <c r="B236">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237">
@@ -2331,7 +2331,7 @@
         <v>42666</v>
       </c>
       <c r="B240">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -2347,7 +2347,7 @@
         <v>42680</v>
       </c>
       <c r="B242">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243">
@@ -2363,7 +2363,7 @@
         <v>42694</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -2379,7 +2379,7 @@
         <v>42708</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -2459,7 +2459,7 @@
         <v>42778</v>
       </c>
       <c r="B256">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -2467,7 +2467,7 @@
         <v>42785</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -2683,7 +2683,7 @@
         <v>42974</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -2939,7 +2939,7 @@
         <v>43198</v>
       </c>
       <c r="B316">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,10 +365,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>wave</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>criteria</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>n_protests</t>
         </is>
@@ -377,20 +382,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Second Wave (Mizzou)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Mizzou umbrella</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Second Wave (Mizzou)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>racial_issue == Univ governance... OR racial_issue == Campus climate</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1239</v>
       </c>
     </row>

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Second Wave (Mizzou)</t>
+          <t>Second US Wave (Mizzou)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -397,7 +397,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Second Wave (Mizzou)</t>
+          <t>Second US Wave (Mizzou)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="second_us_wave_summary" sheetId="1" r:id="rId1"/>
-    <sheet name="univ_admin_and_campus_climate" sheetId="2" r:id="rId2"/>
+    <sheet name="mizzou_by_issue_weekly_count" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +450,7 @@
         <v>42281</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +450,7 @@
         <v>42281</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>42337</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">

--- a/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/second_us_wave_counts.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +482,7 @@
         <v>42309</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -490,7 +490,7 @@
         <v>42316</v>
       </c>
       <c r="B8">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
